--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -7931,7 +7931,7 @@
         <v>125476319</v>
       </c>
       <c r="B61" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>125482995</v>
       </c>
       <c r="B71" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>125476185</v>
       </c>
       <c r="B75" t="n">
-        <v>58421</v>
+        <v>58425</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>

--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -34428,7 +34428,7 @@
         <v>127697314</v>
       </c>
       <c r="B297" t="n">
-        <v>57844</v>
+        <v>58043</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>

--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -4075,12 +4075,7 @@
         <v>122571876</v>
       </c>
       <c r="B30" t="n">
-        <v>57497</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57878</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4456,12 +4451,7 @@
         <v>122570695</v>
       </c>
       <c r="B33" t="n">
-        <v>57494</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57881</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -34206,7 +34196,7 @@
         <v>127697565</v>
       </c>
       <c r="B295" t="n">
-        <v>57681</v>
+        <v>57881</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>

--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -4852,12 +4852,7 @@
         <v>123292589</v>
       </c>
       <c r="B36" t="n">
-        <v>57642</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58041</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -5321,12 +5316,7 @@
         <v>123361954</v>
       </c>
       <c r="B40" t="n">
-        <v>56541</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>56856</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>

--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -4728,12 +4728,7 @@
         <v>123292616</v>
       </c>
       <c r="B35" t="n">
-        <v>58169</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58565</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5425,12 +5420,7 @@
         <v>123362089</v>
       </c>
       <c r="B41" t="n">
-        <v>58169</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58565</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/artfynd/A 53665-2024 artfynd.xlsx
+++ b/artfynd/A 53665-2024 artfynd.xlsx
@@ -4837,7 +4837,7 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Anders Carlberg, Herbert Kaufmann, Kari Storvestre</t>
+          <t>Kari Storvestre, Herbert Kaufmann, Anders Carlberg</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
